--- a/model_selection_baseline.xlsx
+++ b/model_selection_baseline.xlsx
@@ -1,21 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25427"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/e621d9677247b745/Data_26-07/Water_Potability/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="9" documentId="11_5EE0A2299631921FD2FE31D2F8F2D3C2545DEFFC" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D5BC1475-6C9E-49C2-B8A0-0A2C5C534388}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -40,22 +34,22 @@
     <t>Score_Test</t>
   </si>
   <si>
+    <t>Tree</t>
+  </si>
+  <si>
     <t>Tree_Scaled</t>
   </si>
   <si>
-    <t>Tree</t>
-  </si>
-  <si>
     <t>knn</t>
   </si>
   <si>
+    <t>Random_Scaled</t>
+  </si>
+  <si>
+    <t>Random</t>
+  </si>
+  <si>
     <t>svm</t>
-  </si>
-  <si>
-    <t>Random</t>
-  </si>
-  <si>
-    <t>Random_Scaled</t>
   </si>
   <si>
     <t>Logistic</t>
@@ -64,8 +58,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -82,18 +76,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -123,94 +111,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>24</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="Picture 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30DC989C-D782-2D9B-831F-798E92596667}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="0" y="3048000"/>
-          <a:ext cx="4695825" cy="1533525"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -256,7 +168,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -288,27 +200,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -340,24 +234,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -533,25 +409,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I22" sqref="I22"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="10.5703125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="2"/>
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -571,170 +436,168 @@
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B2" s="2">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.43</v>
-      </c>
-      <c r="D2" s="3">
-        <v>0.49</v>
-      </c>
-      <c r="E2" s="3">
-        <v>0.46</v>
-      </c>
-      <c r="F2" s="2">
+      <c r="B2">
+        <v>0.57</v>
+      </c>
+      <c r="C2">
+        <v>0.45</v>
+      </c>
+      <c r="D2">
+        <v>0.48</v>
+      </c>
+      <c r="E2">
+        <v>0.47</v>
+      </c>
+      <c r="F2">
         <v>1</v>
       </c>
-      <c r="G2" s="2">
-        <v>0.55000000000000004</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <v>0.57</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="2">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="C3" s="2">
+      <c r="B3">
+        <v>0.54</v>
+      </c>
+      <c r="C3">
+        <v>0.42</v>
+      </c>
+      <c r="D3">
+        <v>0.47</v>
+      </c>
+      <c r="E3">
         <v>0.44</v>
       </c>
-      <c r="D3" s="2">
-        <v>0.47</v>
-      </c>
-      <c r="E3" s="2">
-        <v>0.46</v>
-      </c>
-      <c r="F3" s="2">
+      <c r="F3">
         <v>1</v>
       </c>
-      <c r="G3" s="2">
-        <v>0.56000000000000005</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <v>0.54</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B4">
         <v>0.62</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C4">
         <v>0.52</v>
       </c>
-      <c r="D4" s="2">
+      <c r="D4">
         <v>0.36</v>
       </c>
-      <c r="E4" s="2">
+      <c r="E4">
         <v>0.43</v>
       </c>
-      <c r="F4" s="2">
+      <c r="F4">
         <v>0.77</v>
       </c>
-      <c r="G4" s="2">
+      <c r="G4">
         <v>0.62</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="2">
-        <v>0.68</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.7</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.3</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0.42</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0.73</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0.68</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>0.64</v>
+      </c>
+      <c r="C5">
+        <v>0.57</v>
+      </c>
+      <c r="D5">
+        <v>0.32</v>
+      </c>
+      <c r="E5">
+        <v>0.41</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5">
+        <v>0.64</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B6" s="2">
-        <v>0.64</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="B6">
+        <v>0.65</v>
+      </c>
+      <c r="C6">
+        <v>0.61</v>
+      </c>
+      <c r="D6">
         <v>0.3</v>
       </c>
-      <c r="E6" s="2">
-        <v>0.39</v>
-      </c>
-      <c r="F6" s="2">
+      <c r="E6">
+        <v>0.4</v>
+      </c>
+      <c r="F6">
         <v>1</v>
       </c>
-      <c r="G6" s="2">
-        <v>0.64</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="2">
-        <v>0.64</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.56999999999999995</v>
-      </c>
-      <c r="D7" s="2">
+      <c r="B7">
+        <v>0.68</v>
+      </c>
+      <c r="C7">
+        <v>0.7</v>
+      </c>
+      <c r="D7">
         <v>0.3</v>
       </c>
-      <c r="E7" s="2">
-        <v>0.39</v>
-      </c>
-      <c r="F7" s="2">
-        <v>1</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0.64</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E7">
+        <v>0.42</v>
+      </c>
+      <c r="F7">
+        <v>0.73</v>
+      </c>
+      <c r="G7">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="2">
+      <c r="B8">
         <v>0.61</v>
       </c>
-      <c r="C8" s="2">
+      <c r="C8">
         <v>1</v>
       </c>
-      <c r="D8" s="2">
+      <c r="D8">
         <v>0</v>
       </c>
-      <c r="E8" s="2">
+      <c r="E8">
         <v>0.01</v>
       </c>
-      <c r="F8" s="2">
+      <c r="F8">
         <v>0.61</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8">
         <v>0.61</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/model_selection_baseline.xlsx
+++ b/model_selection_baseline.xlsx
@@ -43,13 +43,13 @@
     <t>knn</t>
   </si>
   <si>
+    <t>svm</t>
+  </si>
+  <si>
+    <t>Random</t>
+  </si>
+  <si>
     <t>Random_Scaled</t>
-  </si>
-  <si>
-    <t>Random</t>
-  </si>
-  <si>
-    <t>svm</t>
   </si>
   <si>
     <t>Logistic</t>
@@ -441,22 +441,22 @@
         <v>6</v>
       </c>
       <c r="B2">
-        <v>0.57</v>
+        <v>0.55</v>
       </c>
       <c r="C2">
+        <v>0.43</v>
+      </c>
+      <c r="D2">
+        <v>0.47</v>
+      </c>
+      <c r="E2">
         <v>0.45</v>
-      </c>
-      <c r="D2">
-        <v>0.48</v>
-      </c>
-      <c r="E2">
-        <v>0.47</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.57</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -464,13 +464,13 @@
         <v>7</v>
       </c>
       <c r="B3">
-        <v>0.54</v>
+        <v>0.55</v>
       </c>
       <c r="C3">
-        <v>0.42</v>
+        <v>0.43</v>
       </c>
       <c r="D3">
-        <v>0.47</v>
+        <v>0.45</v>
       </c>
       <c r="E3">
         <v>0.44</v>
@@ -479,7 +479,7 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.54</v>
+        <v>0.55</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -510,22 +510,22 @@
         <v>9</v>
       </c>
       <c r="B5">
-        <v>0.64</v>
+        <v>0.68</v>
       </c>
       <c r="C5">
-        <v>0.57</v>
+        <v>0.7</v>
       </c>
       <c r="D5">
-        <v>0.32</v>
+        <v>0.3</v>
       </c>
       <c r="E5">
-        <v>0.41</v>
+        <v>0.42</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.73</v>
       </c>
       <c r="G5">
-        <v>0.64</v>
+        <v>0.68</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -533,10 +533,10 @@
         <v>10</v>
       </c>
       <c r="B6">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
       <c r="C6">
-        <v>0.61</v>
+        <v>0.63</v>
       </c>
       <c r="D6">
         <v>0.3</v>
@@ -548,7 +548,7 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.65</v>
+        <v>0.66</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -556,22 +556,22 @@
         <v>11</v>
       </c>
       <c r="B7">
-        <v>0.68</v>
+        <v>0.64</v>
       </c>
       <c r="C7">
-        <v>0.7</v>
+        <v>0.57</v>
       </c>
       <c r="D7">
         <v>0.3</v>
       </c>
       <c r="E7">
-        <v>0.42</v>
+        <v>0.39</v>
       </c>
       <c r="F7">
-        <v>0.73</v>
+        <v>1</v>
       </c>
       <c r="G7">
-        <v>0.68</v>
+        <v>0.64</v>
       </c>
     </row>
     <row r="8" spans="1:7">
